--- a/etiquetas_funciones.xlsx
+++ b/etiquetas_funciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\Universidad\hack_UDC\HackUDC4realThisTime-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\Universidad\hack_UDC\otro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F306E350-8316-4461-BC1F-B81CB1E3BDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB08405-F809-44AA-95B0-107D13CBB375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>"Hola,¿Qué tal en que puedo ayudarte hoy?"</t>
   </si>
@@ -120,6 +119,12 @@
   </si>
   <si>
     <t>analizar_consumo_medio_por_hora(datos)</t>
+  </si>
+  <si>
+    <t>agradecimiento</t>
+  </si>
+  <si>
+    <t>"Me alegro de haberte alludado .)"</t>
   </si>
 </sst>
 </file>
@@ -452,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -536,6 +541,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/etiquetas_funciones.xlsx
+++ b/etiquetas_funciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\Universidad\hack_UDC\otro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB08405-F809-44AA-95B0-107D13CBB375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6A0B3B-727B-4362-A4E3-960F6F7F8462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
